--- a/Scraper/matchups.xlsx
+++ b/Scraper/matchups.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,30 +461,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Pantheon</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Galio</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Aatrox</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Malphite</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Camille</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Jax</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Viktor</t>
         </is>
@@ -497,34 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G2" t="n">
         <v>1.18</v>
       </c>
-      <c r="C2" t="n">
-        <v>-1.15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.24</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
-        <v>1.12</v>
-      </c>
       <c r="I2" t="n">
-        <v>-1.35</v>
+        <v>1.99</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.99</v>
+        <v>-1.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0.21</v>
+        <v>0.59</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-2.43</v>
       </c>
     </row>
     <row r="3">
@@ -534,34 +542,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.35</v>
+        <v>2.07</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.81</v>
+        <v>-2.08</v>
       </c>
       <c r="D3" t="n">
-        <v>3.26</v>
+        <v>1.49</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.08</v>
+        <v>-2.64</v>
       </c>
       <c r="F3" t="n">
-        <v>3.9</v>
+        <v>4.51</v>
       </c>
       <c r="G3" t="n">
-        <v>1.64</v>
+        <v>3.01</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.35</v>
+        <v>0.47</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.96</v>
+        <v>-0.82</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.89</v>
+        <v>-0.15</v>
       </c>
       <c r="K3" t="n">
-        <v>-4.74</v>
+        <v>-2.43</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-3.72</v>
       </c>
     </row>
     <row r="4">
@@ -571,34 +582,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.41</v>
+        <v>1.14</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.04</v>
+        <v>0.02</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.96</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.18</v>
+        <v>-2.82</v>
       </c>
       <c r="H4" t="n">
-        <v>2.75</v>
+        <v>-1.89</v>
       </c>
       <c r="I4" t="n">
-        <v>2.27</v>
+        <v>0.3</v>
       </c>
       <c r="J4" t="n">
-        <v>0.72</v>
+        <v>2.78</v>
       </c>
       <c r="K4" t="n">
-        <v>-8.52</v>
+        <v>-0.24</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-6.5</v>
       </c>
     </row>
     <row r="5">
@@ -608,34 +622,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.22</v>
+        <v>0.8</v>
       </c>
       <c r="C5" t="n">
-        <v>2.75</v>
+        <v>-1.29</v>
       </c>
       <c r="D5" t="n">
-        <v>3.38</v>
+        <v>2.01</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.46</v>
+        <v>-3.78</v>
       </c>
       <c r="F5" t="n">
-        <v>0.65</v>
+        <v>1.94</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.5</v>
+        <v>2.04</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1</v>
+        <v>-1.08</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.87</v>
+        <v>-0.25</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.01</v>
+        <v>-0.59</v>
       </c>
       <c r="K5" t="n">
-        <v>8.710000000000001</v>
+        <v>-0.23</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.42</v>
       </c>
     </row>
     <row r="6">
@@ -645,34 +662,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.16</v>
+        <v>-1.96</v>
       </c>
       <c r="C6" t="n">
-        <v>2.18</v>
+        <v>2.56</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.41</v>
+        <v>-2.74</v>
       </c>
       <c r="E6" t="n">
-        <v>0.31</v>
+        <v>1.34</v>
       </c>
       <c r="F6" t="n">
-        <v>-5.83</v>
+        <v>-0.95</v>
       </c>
       <c r="G6" t="n">
-        <v>1.57</v>
+        <v>-5.08</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="I6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="J6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>4.7</v>
-      </c>
       <c r="K6" t="n">
-        <v>0.7</v>
+        <v>3.65</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.23</v>
       </c>
     </row>
     <row r="7">
@@ -682,34 +702,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.51</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.32</v>
+        <v>-3.78</v>
       </c>
       <c r="D7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1.33</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="G7" t="n">
         <v>2.59</v>
       </c>
-      <c r="E7" t="n">
-        <v>-2.41</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-1.11</v>
-      </c>
       <c r="H7" t="n">
-        <v>2.29</v>
+        <v>0.98</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.19</v>
+        <v>-0.64</v>
       </c>
       <c r="J7" t="n">
-        <v>-3.35</v>
+        <v>0.17</v>
       </c>
       <c r="K7" t="n">
-        <v>2.84</v>
+        <v>-0.86</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.83</v>
       </c>
     </row>
     <row r="8">
@@ -719,34 +742,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.78</v>
+        <v>-2.68</v>
       </c>
       <c r="C8" t="n">
-        <v>2.11</v>
+        <v>3.47</v>
       </c>
       <c r="D8" t="n">
-        <v>3.4</v>
+        <v>1.42</v>
       </c>
       <c r="E8" t="n">
-        <v>2.53</v>
+        <v>1.15</v>
       </c>
       <c r="F8" t="n">
-        <v>-4.08</v>
+        <v>-4.48</v>
       </c>
       <c r="G8" t="n">
-        <v>1.89</v>
+        <v>-1.49</v>
       </c>
       <c r="H8" t="n">
-        <v>-3.03</v>
+        <v>1.57</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.68</v>
+        <v>-6.65</v>
       </c>
       <c r="J8" t="n">
-        <v>-2.52</v>
+        <v>-1.24</v>
       </c>
       <c r="K8" t="n">
-        <v>9.59</v>
+        <v>-4.04</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.01</v>
       </c>
     </row>
     <row r="9">
@@ -756,34 +782,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.15</v>
+        <v>1.25</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.67</v>
+        <v>-2.48</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04</v>
+        <v>-0.82</v>
       </c>
       <c r="E9" t="n">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
       <c r="F9" t="n">
-        <v>-7.04</v>
+        <v>0.89</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.5</v>
+        <v>-3.71</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.65</v>
+        <v>-1.15</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.97</v>
+        <v>0.09</v>
       </c>
       <c r="J9" t="n">
-        <v>1.95</v>
+        <v>-2.15</v>
       </c>
       <c r="K9" t="n">
-        <v>3.87</v>
+        <v>1.12</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.43</v>
       </c>
     </row>
     <row r="10">
@@ -793,34 +822,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.46</v>
+        <v>0.91</v>
       </c>
       <c r="C10" t="n">
-        <v>-1</v>
+        <v>-0.8</v>
       </c>
       <c r="D10" t="n">
-        <v>2.77</v>
+        <v>3.41</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.55</v>
+        <v>-0.21</v>
       </c>
       <c r="F10" t="n">
-        <v>0.39</v>
+        <v>-0.75</v>
       </c>
       <c r="G10" t="n">
-        <v>4.89</v>
+        <v>0.1</v>
       </c>
       <c r="H10" t="n">
-        <v>-6.77</v>
+        <v>4.41</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.98</v>
+        <v>-5.82</v>
       </c>
       <c r="J10" t="n">
-        <v>-2.03</v>
+        <v>-0.3</v>
       </c>
       <c r="K10" t="n">
-        <v>-6.97</v>
+        <v>-3.4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-4.77</v>
       </c>
     </row>
     <row r="11">
@@ -830,34 +862,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.84</v>
+        <v>1.6</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.05</v>
+        <v>-1.92</v>
       </c>
       <c r="D11" t="n">
-        <v>3.89</v>
+        <v>1.93</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.88</v>
+        <v>0.16</v>
       </c>
       <c r="F11" t="n">
-        <v>0.68</v>
+        <v>-0.13</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.3</v>
+        <v>-5.4</v>
       </c>
       <c r="H11" t="n">
-        <v>3.72</v>
+        <v>-1.46</v>
       </c>
       <c r="I11" t="n">
-        <v>1.32</v>
+        <v>2.91</v>
       </c>
       <c r="J11" t="n">
-        <v>1.75</v>
+        <v>2.47</v>
       </c>
       <c r="K11" t="n">
-        <v>4.59</v>
+        <v>0.44</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="12">
@@ -867,34 +902,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13.36</v>
+        <v>6.93</v>
       </c>
       <c r="C12" t="n">
-        <v>5.67</v>
+        <v>1.55</v>
       </c>
       <c r="D12" t="n">
-        <v>1.73</v>
+        <v>2.93</v>
       </c>
       <c r="E12" t="n">
-        <v>1.21</v>
+        <v>-1.78</v>
       </c>
       <c r="F12" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="G12" t="n">
         <v>0</v>
       </c>
-      <c r="G12" t="n">
-        <v>-1.69</v>
-      </c>
       <c r="H12" t="n">
-        <v>-5.45</v>
+        <v>-1.18</v>
       </c>
       <c r="I12" t="n">
-        <v>5.55</v>
+        <v>-5.13</v>
       </c>
       <c r="J12" t="n">
-        <v>-9.220000000000001</v>
+        <v>5.08</v>
       </c>
       <c r="K12" t="n">
-        <v>1.79</v>
+        <v>-2.64</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-2.67</v>
       </c>
     </row>
     <row r="13">
@@ -904,34 +942,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.92</v>
+        <v>1.09</v>
       </c>
       <c r="C13" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.66</v>
+        <v>-0.9</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.36</v>
+        <v>-2.04</v>
       </c>
       <c r="F13" t="n">
-        <v>-6.33</v>
+        <v>-2.63</v>
       </c>
       <c r="G13" t="n">
-        <v>2.22</v>
+        <v>-1.63</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.16</v>
+        <v>1.05</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.04</v>
+        <v>-0.11</v>
       </c>
       <c r="J13" t="n">
-        <v>0.42</v>
+        <v>-1.34</v>
       </c>
       <c r="K13" t="n">
-        <v>0.29</v>
+        <v>-1.78</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="14">
@@ -941,34 +982,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.9</v>
+        <v>-3.26</v>
       </c>
       <c r="C14" t="n">
-        <v>2.14</v>
+        <v>1.66</v>
       </c>
       <c r="D14" t="n">
-        <v>1.59</v>
+        <v>0.02</v>
       </c>
       <c r="E14" t="n">
-        <v>0.17</v>
+        <v>-0.14</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.34</v>
+        <v>0.66</v>
       </c>
       <c r="G14" t="n">
-        <v>0.19</v>
+        <v>-6.42</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.67</v>
+        <v>-1.04</v>
       </c>
       <c r="I14" t="n">
-        <v>5.79</v>
+        <v>-0.28</v>
       </c>
       <c r="J14" t="n">
-        <v>-2.85</v>
+        <v>4.5</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.45</v>
+        <v>-4.64</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-0.65</v>
       </c>
     </row>
     <row r="15">
@@ -978,34 +1022,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.43</v>
+        <v>1.16</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.53</v>
+        <v>-0.5</v>
       </c>
       <c r="D15" t="n">
-        <v>1.61</v>
+        <v>0.93</v>
       </c>
       <c r="E15" t="n">
-        <v>-3.15</v>
+        <v>-3.25</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.28</v>
+        <v>-0.66</v>
       </c>
       <c r="G15" t="n">
-        <v>0.57</v>
+        <v>-0.38</v>
       </c>
       <c r="H15" t="n">
-        <v>4.31</v>
+        <v>-0.25</v>
       </c>
       <c r="I15" t="n">
-        <v>2.02</v>
+        <v>3.57</v>
       </c>
       <c r="J15" t="n">
-        <v>-1.73</v>
+        <v>0.52</v>
       </c>
       <c r="K15" t="n">
-        <v>-1.85</v>
+        <v>-1.13</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="16">
@@ -1015,34 +1062,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3.75</v>
+        <v>-2.46</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.54</v>
+        <v>-0.35</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7</v>
+        <v>0.96</v>
       </c>
       <c r="E16" t="n">
-        <v>0.62</v>
+        <v>-0.9</v>
       </c>
       <c r="F16" t="n">
-        <v>5.44</v>
+        <v>-1.54</v>
       </c>
       <c r="G16" t="n">
-        <v>1.06</v>
+        <v>2.68</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.46</v>
+        <v>0.16</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.68</v>
+        <v>-2.73</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.37</v>
+        <v>-0.42</v>
       </c>
       <c r="K16" t="n">
-        <v>3.15</v>
+        <v>-1.63</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.16</v>
       </c>
     </row>
     <row r="17">
@@ -1052,34 +1102,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.26</v>
+        <v>3.15</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.44</v>
+        <v>-1.13</v>
       </c>
       <c r="D17" t="n">
-        <v>0.71</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>4.11</v>
+        <v>1.36</v>
       </c>
       <c r="F17" t="n">
-        <v>-6.37</v>
+        <v>1.24</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.33</v>
+        <v>-0.8</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.32</v>
+        <v>-0.65</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.43</v>
+        <v>-0.44</v>
       </c>
       <c r="J17" t="n">
-        <v>3.62</v>
+        <v>-2.43</v>
       </c>
       <c r="K17" t="n">
-        <v>1.94</v>
+        <v>1.75</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.61</v>
       </c>
     </row>
     <row r="18">
@@ -1089,34 +1142,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.74</v>
+        <v>0.22</v>
       </c>
       <c r="C18" t="n">
-        <v>-5.97</v>
+        <v>-2.54</v>
       </c>
       <c r="D18" t="n">
-        <v>4.87</v>
+        <v>0.74</v>
       </c>
       <c r="E18" t="n">
-        <v>-7.7</v>
+        <v>-4.19</v>
       </c>
       <c r="F18" t="n">
-        <v>2.17</v>
+        <v>-3.15</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.1</v>
+        <v>4.93</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6899999999999999</v>
+        <v>-4.4</v>
       </c>
       <c r="I18" t="n">
-        <v>-3.04</v>
+        <v>1.25</v>
       </c>
       <c r="J18" t="n">
+        <v>-3.57</v>
+      </c>
+      <c r="K18" t="n">
         <v>-2.03</v>
       </c>
-      <c r="K18" t="n">
-        <v>3.43</v>
+      <c r="L18" t="n">
+        <v>4.37</v>
       </c>
     </row>
     <row r="19">
@@ -1126,34 +1182,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-2.96</v>
+        <v>-3.84</v>
       </c>
       <c r="C19" t="n">
-        <v>5.1</v>
+        <v>5.17</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.66</v>
+        <v>-3.49</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.65</v>
+        <v>-2.69</v>
       </c>
       <c r="F19" t="n">
-        <v>8.640000000000001</v>
+        <v>-3.06</v>
       </c>
       <c r="G19" t="n">
-        <v>0.22</v>
+        <v>-5.9</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.88</v>
+        <v>-0.87</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.45</v>
+        <v>-2.64</v>
       </c>
       <c r="J19" t="n">
-        <v>-1.97</v>
+        <v>-1.13</v>
       </c>
       <c r="K19" t="n">
-        <v>8.48</v>
+        <v>-4.46</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4.63</v>
       </c>
     </row>
     <row r="20">
@@ -1163,34 +1222,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="C20" t="n">
-        <v>1.14</v>
+        <v>0.7</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.94</v>
+        <v>-3.85</v>
       </c>
       <c r="E20" t="n">
-        <v>4.06</v>
+        <v>4.92</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.18</v>
+        <v>-0.48</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.67</v>
+        <v>-0.88</v>
       </c>
       <c r="H20" t="n">
-        <v>4.88</v>
+        <v>-2.98</v>
       </c>
       <c r="I20" t="n">
-        <v>2.55</v>
+        <v>3.23</v>
       </c>
       <c r="J20" t="n">
-        <v>4.94</v>
+        <v>1.35</v>
       </c>
       <c r="K20" t="n">
-        <v>-5.87</v>
+        <v>5.01</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-9.09</v>
       </c>
     </row>
     <row r="21">
@@ -1200,34 +1262,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.16</v>
+        <v>0.31</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-0.32</v>
       </c>
       <c r="D21" t="n">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="E21" t="n">
-        <v>-4.34</v>
+        <v>-4.79</v>
       </c>
       <c r="F21" t="n">
-        <v>8.119999999999999</v>
+        <v>1.36</v>
       </c>
       <c r="G21" t="n">
-        <v>1.2</v>
+        <v>2.69</v>
       </c>
       <c r="H21" t="n">
-        <v>1.93</v>
+        <v>-0.59</v>
       </c>
       <c r="I21" t="n">
-        <v>-3.27</v>
+        <v>2.29</v>
       </c>
       <c r="J21" t="n">
+        <v>-3.65</v>
+      </c>
+      <c r="K21" t="n">
         <v>0</v>
       </c>
-      <c r="K21" t="n">
-        <v>-3.03</v>
+      <c r="L21" t="n">
+        <v>-3.09</v>
       </c>
     </row>
     <row r="22">
@@ -1237,34 +1302,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.62</v>
+        <v>-0.43</v>
       </c>
       <c r="C22" t="n">
-        <v>0.64</v>
+        <v>0.29</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.01</v>
+        <v>1.34</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.9</v>
+        <v>-3.11</v>
       </c>
       <c r="F22" t="n">
-        <v>1.24</v>
+        <v>1.11</v>
       </c>
       <c r="G22" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I22" t="n">
         <v>0.33</v>
       </c>
-      <c r="H22" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="I22" t="n">
-        <v>-0.7</v>
-      </c>
       <c r="J22" t="n">
-        <v>-1.19</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>-2.72</v>
+        <v>-1.65</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-3.25</v>
       </c>
     </row>
     <row r="23">
@@ -1274,34 +1342,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.7</v>
+        <v>0.44</v>
       </c>
       <c r="C23" t="n">
-        <v>-3.18</v>
+        <v>-0.87</v>
       </c>
       <c r="D23" t="n">
-        <v>2.34</v>
+        <v>1.78</v>
       </c>
       <c r="E23" t="n">
-        <v>-1.47</v>
+        <v>-0.19</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.78</v>
+        <v>-0.49</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.48</v>
+        <v>-3.94</v>
       </c>
       <c r="H23" t="n">
-        <v>0.03</v>
+        <v>-1.49</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.11</v>
+        <v>-2</v>
       </c>
       <c r="J23" t="n">
-        <v>-2.36</v>
+        <v>0.46</v>
       </c>
       <c r="K23" t="n">
-        <v>1.05</v>
+        <v>-2.73</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="24">
@@ -1311,34 +1382,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-10.26</v>
+        <v>-0.78</v>
       </c>
       <c r="C24" t="n">
-        <v>-3.64</v>
+        <v>-2.91</v>
       </c>
       <c r="D24" t="n">
-        <v>0.21</v>
+        <v>1.45</v>
       </c>
       <c r="E24" t="n">
-        <v>-3.34</v>
+        <v>-2.89</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.67</v>
+        <v>-3.69</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.3</v>
+        <v>5.03</v>
       </c>
       <c r="H24" t="n">
-        <v>7.07</v>
+        <v>-2.32</v>
       </c>
       <c r="I24" t="n">
-        <v>7.15</v>
+        <v>1.16</v>
       </c>
       <c r="J24" t="n">
-        <v>2.4</v>
+        <v>1.82</v>
       </c>
       <c r="K24" t="n">
-        <v>-3.6</v>
+        <v>-1.42</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="25">
@@ -1348,34 +1422,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.63</v>
+        <v>1.96</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.62</v>
+        <v>-0.92</v>
       </c>
       <c r="D25" t="n">
-        <v>3.55</v>
+        <v>2.09</v>
       </c>
       <c r="E25" t="n">
-        <v>-2.53</v>
+        <v>-3.96</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.19</v>
+        <v>1.66</v>
       </c>
       <c r="G25" t="n">
-        <v>0.83</v>
+        <v>1.3</v>
       </c>
       <c r="H25" t="n">
-        <v>6.76</v>
+        <v>-1.06</v>
       </c>
       <c r="I25" t="n">
-        <v>2.38</v>
+        <v>4.44</v>
       </c>
       <c r="J25" t="n">
-        <v>2.6</v>
+        <v>1.94</v>
       </c>
       <c r="K25" t="n">
-        <v>6.76</v>
+        <v>3.89</v>
+      </c>
+      <c r="L25" t="n">
+        <v>7.56</v>
       </c>
     </row>
     <row r="26">
@@ -1385,34 +1462,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-3.84</v>
+        <v>-1.36</v>
       </c>
       <c r="C26" t="n">
-        <v>1.87</v>
+        <v>0.09</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.68</v>
+        <v>-1.84</v>
       </c>
       <c r="E26" t="n">
-        <v>-3.19</v>
+        <v>-3.92</v>
       </c>
       <c r="F26" t="n">
-        <v>5.98</v>
+        <v>0.79</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.49</v>
+        <v>6.06</v>
       </c>
       <c r="H26" t="n">
-        <v>5.06</v>
+        <v>-2.03</v>
       </c>
       <c r="I26" t="n">
-        <v>-2.89</v>
+        <v>1.84</v>
       </c>
       <c r="J26" t="n">
-        <v>-1.97</v>
+        <v>-1.2</v>
       </c>
       <c r="K26" t="n">
-        <v>-3.7</v>
+        <v>-2.06</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="27">
@@ -1422,34 +1502,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-2.95</v>
+        <v>-1.98</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.7</v>
+        <v>-0.27</v>
       </c>
       <c r="D27" t="n">
-        <v>4.02</v>
+        <v>-0.22</v>
       </c>
       <c r="E27" t="n">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>-13.25</v>
+        <v>-0.04</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.28</v>
+        <v>-7</v>
       </c>
       <c r="H27" t="n">
-        <v>0.82</v>
+        <v>-0.87</v>
       </c>
       <c r="I27" t="n">
-        <v>2.01</v>
+        <v>0.45</v>
       </c>
       <c r="J27" t="n">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.08</v>
+        <v>2.59</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-0.54</v>
       </c>
     </row>
     <row r="28">
@@ -1459,34 +1542,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-3.8</v>
+        <v>-3.93</v>
       </c>
       <c r="C28" t="n">
-        <v>6.27</v>
+        <v>4.52</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.17</v>
+        <v>-0.3</v>
       </c>
       <c r="E28" t="n">
-        <v>2.11</v>
+        <v>0.46</v>
       </c>
       <c r="F28" t="n">
-        <v>5.33</v>
+        <v>-3.88</v>
       </c>
       <c r="G28" t="n">
-        <v>0.38</v>
+        <v>5.13</v>
       </c>
       <c r="H28" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0.06</v>
-      </c>
       <c r="J28" t="n">
-        <v>-2.25</v>
+        <v>-1.38</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.63</v>
+        <v>-2.29</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="29">
@@ -1496,34 +1582,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-3.29</v>
+        <v>-1.97</v>
       </c>
       <c r="C29" t="n">
-        <v>4.57</v>
+        <v>5.62</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.48</v>
+        <v>0.3</v>
       </c>
       <c r="E29" t="n">
-        <v>2.69</v>
+        <v>1.41</v>
       </c>
       <c r="F29" t="n">
-        <v>5.46</v>
+        <v>-3.95</v>
       </c>
       <c r="G29" t="n">
-        <v>2.13</v>
+        <v>0.86</v>
       </c>
       <c r="H29" t="n">
-        <v>-9.57</v>
+        <v>1.85</v>
       </c>
       <c r="I29" t="n">
-        <v>-1.45</v>
+        <v>-5.98</v>
       </c>
       <c r="J29" t="n">
-        <v>-2.95</v>
+        <v>0.2</v>
       </c>
       <c r="K29" t="n">
-        <v>-2.72</v>
+        <v>-2.24</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="30">
@@ -1533,34 +1622,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4.57</v>
+        <v>1.17</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1.79</v>
+        <v>-0.02</v>
       </c>
       <c r="E30" t="n">
-        <v>1.49</v>
+        <v>2.16</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.13</v>
+        <v>0.87</v>
       </c>
       <c r="G30" t="n">
-        <v>2.01</v>
+        <v>-1.6</v>
       </c>
       <c r="H30" t="n">
-        <v>-4.25</v>
+        <v>1.23</v>
       </c>
       <c r="I30" t="n">
-        <v>-1.32</v>
+        <v>-4.53</v>
       </c>
       <c r="J30" t="n">
-        <v>1.57</v>
+        <v>-2.6</v>
       </c>
       <c r="K30" t="n">
-        <v>-1.17</v>
+        <v>0.32</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="31">
@@ -1570,34 +1662,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.05</v>
+        <v>-1.02</v>
       </c>
       <c r="C31" t="n">
-        <v>-1</v>
+        <v>-1.09</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.06</v>
+        <v>1.07</v>
       </c>
       <c r="E31" t="n">
-        <v>1.79</v>
+        <v>1.07</v>
       </c>
       <c r="F31" t="n">
-        <v>-8.33</v>
+        <v>-1.52</v>
       </c>
       <c r="G31" t="n">
-        <v>2.81</v>
+        <v>0.62</v>
       </c>
       <c r="H31" t="n">
-        <v>-4.49</v>
+        <v>0.32</v>
       </c>
       <c r="I31" t="n">
-        <v>2.82</v>
+        <v>-2.91</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.26</v>
+        <v>1.26</v>
       </c>
       <c r="K31" t="n">
-        <v>6.73</v>
+        <v>-0.53</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-1.71</v>
       </c>
     </row>
     <row r="32">
@@ -1607,34 +1702,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.37</v>
+        <v>-1.01</v>
       </c>
       <c r="C32" t="n">
+        <v>-2.35</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-1.94</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-8.81</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="J32" t="n">
         <v>-1.01</v>
       </c>
-      <c r="D32" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="F32" t="n">
-        <v>-10.39</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="H32" t="n">
-        <v>-0.74</v>
-      </c>
-      <c r="I32" t="n">
-        <v>-1.09</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1.54</v>
-      </c>
       <c r="K32" t="n">
-        <v>-14.63</v>
+        <v>0.99</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-11.14</v>
       </c>
     </row>
     <row r="33">
@@ -1644,34 +1742,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.24</v>
+        <v>0.06</v>
       </c>
       <c r="C33" t="n">
-        <v>1.61</v>
+        <v>1.28</v>
       </c>
       <c r="D33" t="n">
-        <v>2.56</v>
+        <v>3.17</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.19</v>
+        <v>0.68</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.42</v>
+        <v>-0.06</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.47</v>
+        <v>0.37</v>
       </c>
       <c r="H33" t="n">
-        <v>-5.65</v>
+        <v>-0.14</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>-4.9</v>
       </c>
       <c r="J33" t="n">
-        <v>0.63</v>
+        <v>0.87</v>
       </c>
       <c r="K33" t="n">
-        <v>1.44</v>
+        <v>-0.2</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-2.26</v>
       </c>
     </row>
     <row r="34">
@@ -1681,34 +1782,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.13</v>
+        <v>-2.13</v>
       </c>
       <c r="C34" t="n">
-        <v>1.28</v>
+        <v>-0.87</v>
       </c>
       <c r="D34" t="n">
-        <v>-2.62</v>
+        <v>-1.96</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.71</v>
+        <v>-0.04</v>
       </c>
       <c r="F34" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01</v>
+        <v>1.08</v>
       </c>
       <c r="H34" t="n">
-        <v>6.95</v>
+        <v>-2.36</v>
       </c>
       <c r="I34" t="n">
-        <v>2.2</v>
+        <v>3.88</v>
       </c>
       <c r="J34" t="n">
-        <v>-1.41</v>
+        <v>0.89</v>
       </c>
       <c r="K34" t="n">
-        <v>11.19</v>
+        <v>-1.36</v>
+      </c>
+      <c r="L34" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -1718,34 +1822,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1.63</v>
+        <v>-1.92</v>
       </c>
       <c r="C35" t="n">
-        <v>3.01</v>
+        <v>1.21</v>
       </c>
       <c r="D35" t="n">
-        <v>-2.39</v>
+        <v>-1.96</v>
       </c>
       <c r="E35" t="n">
-        <v>1.53</v>
+        <v>0.58</v>
       </c>
       <c r="F35" t="n">
-        <v>-8.119999999999999</v>
+        <v>-2.5</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.74</v>
+        <v>-6.03</v>
       </c>
       <c r="H35" t="n">
-        <v>1.16</v>
+        <v>-0.1</v>
       </c>
       <c r="I35" t="n">
-        <v>0.52</v>
+        <v>1.75</v>
       </c>
       <c r="J35" t="n">
-        <v>-1.28</v>
+        <v>-0.86</v>
       </c>
       <c r="K35" t="n">
-        <v>7.21</v>
+        <v>-3.62</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="36">
@@ -1755,34 +1862,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-2.04</v>
+        <v>-4.57</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.44</v>
+        <v>0.97</v>
       </c>
       <c r="D36" t="n">
-        <v>-1.62</v>
+        <v>-0.42</v>
       </c>
       <c r="E36" t="n">
-        <v>-5.85</v>
+        <v>-6.91</v>
       </c>
       <c r="F36" t="n">
-        <v>-5.62</v>
+        <v>-2.18</v>
       </c>
       <c r="G36" t="n">
-        <v>2.87</v>
+        <v>-0.23</v>
       </c>
       <c r="H36" t="n">
-        <v>8.5</v>
+        <v>0.14</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.18</v>
+        <v>5.82</v>
       </c>
       <c r="J36" t="n">
-        <v>0.6899999999999999</v>
+        <v>-0.63</v>
       </c>
       <c r="K36" t="n">
-        <v>1.01</v>
+        <v>-1.13</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.87</v>
       </c>
     </row>
     <row r="37">
@@ -1792,34 +1902,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-3.09</v>
+        <v>-3.55</v>
       </c>
       <c r="C37" t="n">
-        <v>2.35</v>
+        <v>0.5</v>
       </c>
       <c r="D37" t="n">
-        <v>-2.92</v>
+        <v>-3.07</v>
       </c>
       <c r="E37" t="n">
-        <v>1.43</v>
+        <v>-0.46</v>
       </c>
       <c r="F37" t="n">
-        <v>-12.4</v>
+        <v>1.19</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.53</v>
+        <v>-6.29</v>
       </c>
       <c r="H37" t="n">
-        <v>2.57</v>
+        <v>-0.74</v>
       </c>
       <c r="I37" t="n">
-        <v>-1.02</v>
+        <v>1.38</v>
       </c>
       <c r="J37" t="n">
-        <v>1.5</v>
+        <v>-0.47</v>
       </c>
       <c r="K37" t="n">
-        <v>1.08</v>
+        <v>1.6</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.21</v>
       </c>
     </row>
     <row r="38">
@@ -1829,34 +1942,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5.86</v>
+        <v>3.38</v>
       </c>
       <c r="C38" t="n">
-        <v>-3.61</v>
+        <v>-0.15</v>
       </c>
       <c r="D38" t="n">
-        <v>1.84</v>
+        <v>-0.76</v>
       </c>
       <c r="E38" t="n">
-        <v>5.53</v>
+        <v>2.84</v>
       </c>
       <c r="F38" t="n">
-        <v>-5.14</v>
+        <v>1.06</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.29</v>
+        <v>-2.62</v>
       </c>
       <c r="H38" t="n">
-        <v>3.28</v>
+        <v>0.16</v>
       </c>
       <c r="I38" t="n">
-        <v>3.19</v>
+        <v>4.04</v>
       </c>
       <c r="J38" t="n">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
       <c r="K38" t="n">
-        <v>1.49</v>
+        <v>1.89</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-1.51</v>
       </c>
     </row>
     <row r="39">
@@ -1869,31 +1985,34 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>-3.05</v>
+        <v>-1.17</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.41</v>
+        <v>-1.15</v>
       </c>
       <c r="E39" t="n">
-        <v>2.69</v>
+        <v>1.71</v>
       </c>
       <c r="F39" t="n">
-        <v>-8.02</v>
+        <v>2.13</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.78</v>
+        <v>-6.93</v>
       </c>
       <c r="H39" t="n">
-        <v>5.03</v>
+        <v>-1.35</v>
       </c>
       <c r="I39" t="n">
-        <v>2.73</v>
+        <v>3.93</v>
       </c>
       <c r="J39" t="n">
-        <v>0.44</v>
+        <v>2</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.41</v>
+        <v>-0.29</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-2.54</v>
       </c>
     </row>
     <row r="40">
@@ -1903,34 +2022,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.26</v>
+        <v>1.17</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="D40" t="n">
-        <v>1.4</v>
+        <v>1.96</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.96</v>
+        <v>-1.66</v>
       </c>
       <c r="F40" t="n">
-        <v>6.83</v>
+        <v>-2.08</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4</v>
+        <v>3.53</v>
       </c>
       <c r="H40" t="n">
-        <v>-5.51</v>
+        <v>0.25</v>
       </c>
       <c r="I40" t="n">
-        <v>-1.34</v>
+        <v>-2.12</v>
       </c>
       <c r="J40" t="n">
-        <v>0.83</v>
+        <v>0.18</v>
       </c>
       <c r="K40" t="n">
-        <v>1.66</v>
+        <v>-2.19</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.26</v>
       </c>
     </row>
     <row r="41">
@@ -1940,34 +2062,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-3.73</v>
+        <v>-1.74</v>
       </c>
       <c r="C41" t="n">
-        <v>2.15</v>
+        <v>-1.72</v>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="E41" t="n">
-        <v>0.14</v>
+        <v>-2.85</v>
       </c>
       <c r="F41" t="n">
-        <v>9.75</v>
+        <v>0.45</v>
       </c>
       <c r="G41" t="n">
-        <v>1.06</v>
+        <v>3.84</v>
       </c>
       <c r="H41" t="n">
-        <v>-4.84</v>
+        <v>0.15</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.29</v>
+        <v>-3.55</v>
       </c>
       <c r="J41" t="n">
-        <v>0.57</v>
+        <v>2.77</v>
       </c>
       <c r="K41" t="n">
-        <v>4.34</v>
+        <v>-1.3</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2.11</v>
       </c>
     </row>
     <row r="42">
@@ -1977,34 +2102,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.46</v>
+        <v>0.02</v>
       </c>
       <c r="C42" t="n">
-        <v>1.66</v>
+        <v>0.68</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.22</v>
+        <v>-0.93</v>
       </c>
       <c r="E42" t="n">
-        <v>2.73</v>
+        <v>2.47</v>
       </c>
       <c r="F42" t="n">
-        <v>-5.28</v>
+        <v>0.25</v>
       </c>
       <c r="G42" t="n">
-        <v>2.76</v>
+        <v>-2.76</v>
       </c>
       <c r="H42" t="n">
-        <v>2.93</v>
+        <v>1.92</v>
       </c>
       <c r="I42" t="n">
-        <v>1.6</v>
+        <v>2.49</v>
       </c>
       <c r="J42" t="n">
-        <v>2.89</v>
+        <v>-0.23</v>
       </c>
       <c r="K42" t="n">
-        <v>-3.94</v>
+        <v>1.52</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-2.24</v>
       </c>
     </row>
     <row r="43">
@@ -2014,34 +2142,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.28</v>
+        <v>1.36</v>
       </c>
       <c r="C43" t="n">
-        <v>2.89</v>
+        <v>2.94</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.22</v>
+        <v>-1.03</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.79</v>
+        <v>-1.56</v>
       </c>
       <c r="F43" t="n">
-        <v>-4.54</v>
+        <v>-0.43</v>
       </c>
       <c r="G43" t="n">
-        <v>0.65</v>
+        <v>0.23</v>
       </c>
       <c r="H43" t="n">
-        <v>-3.33</v>
+        <v>0.77</v>
       </c>
       <c r="I43" t="n">
-        <v>-2.81</v>
+        <v>-3.96</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.82</v>
+        <v>-2.52</v>
       </c>
       <c r="K43" t="n">
-        <v>-3.6</v>
+        <v>-0.66</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-1.88</v>
       </c>
     </row>
     <row r="44">
@@ -2051,34 +2182,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.28</v>
+        <v>1.96</v>
       </c>
       <c r="C44" t="n">
-        <v>-2.34</v>
+        <v>-2.43</v>
       </c>
       <c r="D44" t="n">
-        <v>2.08</v>
+        <v>1.8</v>
       </c>
       <c r="E44" t="n">
-        <v>3.23</v>
+        <v>0.53</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.66</v>
+        <v>-0.35</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.53</v>
+        <v>0.21</v>
       </c>
       <c r="H44" t="n">
-        <v>-7.26</v>
+        <v>-2.52</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>-3.66</v>
       </c>
       <c r="J44" t="n">
-        <v>-1.76</v>
+        <v>1.59</v>
       </c>
       <c r="K44" t="n">
-        <v>-3.81</v>
+        <v>-4.33</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-2.03</v>
       </c>
     </row>
     <row r="45">
@@ -2088,34 +2222,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.31</v>
+        <v>3.68</v>
       </c>
       <c r="C45" t="n">
-        <v>2.52</v>
+        <v>1.68</v>
       </c>
       <c r="D45" t="n">
-        <v>5.64</v>
+        <v>4.94</v>
       </c>
       <c r="E45" t="n">
-        <v>0.58</v>
+        <v>0.75</v>
       </c>
       <c r="F45" t="n">
-        <v>-9.84</v>
+        <v>-1.84</v>
       </c>
       <c r="G45" t="n">
-        <v>4.41</v>
+        <v>-4.69</v>
       </c>
       <c r="H45" t="n">
-        <v>-5.94</v>
+        <v>3.22</v>
       </c>
       <c r="I45" t="n">
-        <v>-1.21</v>
+        <v>-6.46</v>
       </c>
       <c r="J45" t="n">
-        <v>0.79</v>
+        <v>-0.19</v>
       </c>
       <c r="K45" t="n">
-        <v>-1.89</v>
+        <v>-2.77</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-3.08</v>
       </c>
     </row>
     <row r="46">
@@ -2125,34 +2262,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5.86</v>
+        <v>1.31</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.95</v>
+        <v>0.21</v>
       </c>
       <c r="D46" t="n">
-        <v>8.880000000000001</v>
+        <v>2.87</v>
       </c>
       <c r="E46" t="n">
-        <v>-1.32</v>
+        <v>-4.63</v>
       </c>
       <c r="F46" t="n">
-        <v>-11.66</v>
+        <v>-0.33</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.41</v>
+        <v>-11.4</v>
       </c>
       <c r="H46" t="n">
-        <v>5.44</v>
+        <v>1.7</v>
       </c>
       <c r="I46" t="n">
-        <v>5.35</v>
+        <v>1.41</v>
       </c>
       <c r="J46" t="n">
-        <v>3.31</v>
+        <v>5.02</v>
       </c>
       <c r="K46" t="n">
-        <v>9.94</v>
+        <v>3.6</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2.56</v>
       </c>
     </row>
     <row r="47">
@@ -2162,34 +2302,37 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3.83</v>
+        <v>2.57</v>
       </c>
       <c r="C47" t="n">
-        <v>3.22</v>
+        <v>2.4</v>
       </c>
       <c r="D47" t="n">
-        <v>2.81</v>
+        <v>3.06</v>
       </c>
       <c r="E47" t="n">
-        <v>-1.6</v>
+        <v>-2.48</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.81</v>
+        <v>-1.48</v>
       </c>
       <c r="G47" t="n">
-        <v>1.53</v>
+        <v>-0.08</v>
       </c>
       <c r="H47" t="n">
-        <v>-10.42</v>
+        <v>1.76</v>
       </c>
       <c r="I47" t="n">
-        <v>-5.63</v>
+        <v>-7.31</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.93</v>
+        <v>-0.49</v>
       </c>
       <c r="K47" t="n">
-        <v>0.43</v>
+        <v>1.13</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-3.53</v>
       </c>
     </row>
     <row r="48">
@@ -2199,34 +2342,37 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>7.55</v>
+        <v>5.37</v>
       </c>
       <c r="C48" t="n">
-        <v>-3.36</v>
+        <v>-2.48</v>
       </c>
       <c r="D48" t="n">
-        <v>-1.52</v>
+        <v>3.38</v>
       </c>
       <c r="E48" t="n">
-        <v>2.21</v>
+        <v>1.75</v>
       </c>
       <c r="F48" t="n">
-        <v>-3.03</v>
+        <v>7.18</v>
       </c>
       <c r="G48" t="n">
-        <v>2.63</v>
+        <v>3.42</v>
       </c>
       <c r="H48" t="n">
-        <v>-5.03</v>
+        <v>1.08</v>
       </c>
       <c r="I48" t="n">
-        <v>4.66</v>
+        <v>-6.73</v>
       </c>
       <c r="J48" t="n">
-        <v>1.78</v>
+        <v>3.72</v>
       </c>
       <c r="K48" t="n">
-        <v>-5.78</v>
+        <v>0.43</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-3.05</v>
       </c>
     </row>
     <row r="49">
@@ -2236,34 +2382,37 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="C49" t="n">
-        <v>2.64</v>
+        <v>2.25</v>
       </c>
       <c r="D49" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="E49" t="n">
         <v>3.84</v>
       </c>
-      <c r="E49" t="n">
-        <v>2.19</v>
-      </c>
       <c r="F49" t="n">
-        <v>6.5</v>
+        <v>-1.16</v>
       </c>
       <c r="G49" t="n">
-        <v>6.04</v>
+        <v>-1.78</v>
       </c>
       <c r="H49" t="n">
-        <v>-6.25</v>
+        <v>2.86</v>
       </c>
       <c r="I49" t="n">
-        <v>-3.07</v>
+        <v>-5.98</v>
       </c>
       <c r="J49" t="n">
-        <v>-1.62</v>
+        <v>-3.05</v>
       </c>
       <c r="K49" t="n">
-        <v>-2.83</v>
+        <v>-1.25</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-1.66</v>
       </c>
     </row>
     <row r="50">
@@ -2273,34 +2422,37 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.3</v>
+        <v>-0.64</v>
       </c>
       <c r="C50" t="n">
-        <v>3.04</v>
+        <v>0.89</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.44</v>
+        <v>-2.62</v>
       </c>
       <c r="E50" t="n">
-        <v>-2.88</v>
+        <v>-5.67</v>
       </c>
       <c r="F50" t="n">
-        <v>4.83</v>
+        <v>0.24</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H50" t="n">
-        <v>5.13</v>
+        <v>0.91</v>
       </c>
       <c r="I50" t="n">
-        <v>-5.53</v>
+        <v>3.55</v>
       </c>
       <c r="J50" t="n">
-        <v>1.74</v>
+        <v>-5.39</v>
       </c>
       <c r="K50" t="n">
-        <v>7.36</v>
+        <v>-0.99</v>
+      </c>
+      <c r="L50" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="51">
@@ -2310,34 +2462,37 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2.58</v>
+        <v>-0.08</v>
       </c>
       <c r="C51" t="n">
-        <v>2.92</v>
+        <v>-0.15</v>
       </c>
       <c r="D51" t="n">
-        <v>0.44</v>
+        <v>-1.21</v>
       </c>
       <c r="E51" t="n">
-        <v>1.75</v>
+        <v>1.47</v>
       </c>
       <c r="F51" t="n">
-        <v>4.99</v>
+        <v>0.5</v>
       </c>
       <c r="G51" t="n">
-        <v>2.65</v>
+        <v>-4.06</v>
       </c>
       <c r="H51" t="n">
-        <v>3.66</v>
+        <v>1.2</v>
       </c>
       <c r="I51" t="n">
-        <v>2.68</v>
+        <v>2.82</v>
       </c>
       <c r="J51" t="n">
-        <v>3.06</v>
+        <v>0.63</v>
       </c>
       <c r="K51" t="n">
-        <v>2.28</v>
+        <v>3.16</v>
+      </c>
+      <c r="L51" t="n">
+        <v>3.24</v>
       </c>
     </row>
     <row r="52">
@@ -2347,34 +2502,37 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1.64</v>
+        <v>-0.06</v>
       </c>
       <c r="C52" t="n">
-        <v>1.49</v>
+        <v>-1.82</v>
       </c>
       <c r="D52" t="n">
-        <v>-3.97</v>
+        <v>-2.45</v>
       </c>
       <c r="E52" t="n">
-        <v>2.72</v>
+        <v>2.15</v>
       </c>
       <c r="F52" t="n">
-        <v>8.460000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="G52" t="n">
-        <v>1.6</v>
+        <v>-2.4</v>
       </c>
       <c r="H52" t="n">
-        <v>5.87</v>
+        <v>0.63</v>
       </c>
       <c r="I52" t="n">
-        <v>1.03</v>
+        <v>4.96</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.41</v>
+        <v>0.49</v>
       </c>
       <c r="K52" t="n">
-        <v>-4.82</v>
+        <v>0.7</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-5.54</v>
       </c>
     </row>
     <row r="53">
@@ -2384,34 +2542,37 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>7.79</v>
+        <v>4.4</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.62</v>
+        <v>0.37</v>
       </c>
       <c r="D53" t="n">
-        <v>3.85</v>
+        <v>2.71</v>
       </c>
       <c r="E53" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="G53" t="n">
         <v>2.19</v>
       </c>
-      <c r="F53" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.58</v>
-      </c>
       <c r="H53" t="n">
-        <v>-3.4</v>
+        <v>1.01</v>
       </c>
       <c r="I53" t="n">
-        <v>-1.37</v>
+        <v>-2.95</v>
       </c>
       <c r="J53" t="n">
-        <v>3.65</v>
+        <v>-1.68</v>
       </c>
       <c r="K53" t="n">
-        <v>-12.08</v>
+        <v>0.44</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-5.35</v>
       </c>
     </row>
     <row r="54">
@@ -2421,34 +2582,37 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-2.4</v>
+        <v>-3.67</v>
       </c>
       <c r="C54" t="n">
-        <v>1.52</v>
+        <v>1.83</v>
       </c>
       <c r="D54" t="n">
-        <v>1.27</v>
+        <v>-0.55</v>
       </c>
       <c r="E54" t="n">
-        <v>-2.11</v>
+        <v>-1.65</v>
       </c>
       <c r="F54" t="n">
-        <v>0.51</v>
+        <v>-1.93</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.02</v>
+        <v>-6.22</v>
       </c>
       <c r="H54" t="n">
-        <v>1.79</v>
+        <v>-1.04</v>
       </c>
       <c r="I54" t="n">
-        <v>0.3</v>
+        <v>0.83</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.63</v>
+        <v>1.19</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.36</v>
+        <v>-0.29</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2.31</v>
       </c>
     </row>
     <row r="55">
@@ -2458,34 +2622,37 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.46</v>
+        <v>-2.37</v>
       </c>
       <c r="C55" t="n">
-        <v>-5.57</v>
+        <v>-3.53</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6899999999999999</v>
+        <v>-2.91</v>
       </c>
       <c r="E55" t="n">
-        <v>-4.92</v>
+        <v>-1.52</v>
       </c>
       <c r="F55" t="n">
-        <v>26.11</v>
+        <v>-0.48</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.79</v>
+        <v>4.71</v>
       </c>
       <c r="H55" t="n">
-        <v>0.03</v>
+        <v>1.85</v>
       </c>
       <c r="I55" t="n">
-        <v>3.3</v>
+        <v>-0.32</v>
       </c>
       <c r="J55" t="n">
-        <v>0.27</v>
+        <v>1.42</v>
       </c>
       <c r="K55" t="n">
-        <v>-1.14</v>
+        <v>4.32</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="56">
@@ -2495,34 +2662,37 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-4.91</v>
+        <v>-1.47</v>
       </c>
       <c r="C56" t="n">
-        <v>-1.63</v>
+        <v>-4.25</v>
       </c>
       <c r="D56" t="n">
-        <v>3.53</v>
+        <v>1.74</v>
       </c>
       <c r="E56" t="n">
-        <v>-7.54</v>
+        <v>-4.64</v>
       </c>
       <c r="F56" t="n">
-        <v>5.37</v>
+        <v>4.68</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.28</v>
+        <v>-5.09</v>
       </c>
       <c r="H56" t="n">
-        <v>10.1</v>
+        <v>-2.14</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.49</v>
+        <v>9.69</v>
       </c>
       <c r="J56" t="n">
-        <v>-2.16</v>
+        <v>-2.39</v>
       </c>
       <c r="K56" t="n">
-        <v>10.47</v>
+        <v>2.49</v>
+      </c>
+      <c r="L56" t="n">
+        <v>5.1</v>
       </c>
     </row>
     <row r="57">
@@ -2532,33 +2702,36 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1.21</v>
+        <v>2.54</v>
       </c>
       <c r="C57" t="n">
-        <v>4.5</v>
+        <v>-0.92</v>
       </c>
       <c r="D57" t="n">
-        <v>7.5</v>
+        <v>6.43</v>
       </c>
       <c r="E57" t="n">
-        <v>-5.31</v>
+        <v>-3.36</v>
       </c>
       <c r="F57" t="n">
-        <v>-4.92</v>
+        <v>-6</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.42</v>
+        <v>2.84</v>
       </c>
       <c r="H57" t="n">
-        <v>1.21</v>
+        <v>2.46</v>
       </c>
       <c r="I57" t="n">
-        <v>0.49</v>
+        <v>-0.04</v>
       </c>
       <c r="J57" t="n">
-        <v>2.23</v>
+        <v>-2.23</v>
       </c>
       <c r="K57" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="L57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2569,34 +2742,37 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>3.84</v>
+        <v>3.21</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.41</v>
+        <v>-0.05</v>
       </c>
       <c r="D58" t="n">
-        <v>1.33</v>
+        <v>2.25</v>
       </c>
       <c r="E58" t="n">
-        <v>-1.09</v>
+        <v>-1.89</v>
       </c>
       <c r="F58" t="n">
-        <v>3.22</v>
+        <v>1.83</v>
       </c>
       <c r="G58" t="n">
-        <v>2.37</v>
+        <v>3.8</v>
       </c>
       <c r="H58" t="n">
-        <v>-2.7</v>
+        <v>2.06</v>
       </c>
       <c r="I58" t="n">
-        <v>0.06</v>
+        <v>-2.82</v>
       </c>
       <c r="J58" t="n">
-        <v>-5.43</v>
+        <v>-1.57</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.39</v>
+        <v>-3.32</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="59">
@@ -2606,34 +2782,37 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-1.81</v>
+        <v>-1.76</v>
       </c>
       <c r="C59" t="n">
-        <v>0.39</v>
+        <v>-2.16</v>
       </c>
       <c r="D59" t="n">
-        <v>-1.33</v>
+        <v>-1.56</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>3.2</v>
+        <v>0.03</v>
       </c>
       <c r="G59" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.34</v>
+        <v>-0.08</v>
       </c>
       <c r="I59" t="n">
-        <v>1.27</v>
+        <v>-0.5</v>
       </c>
       <c r="J59" t="n">
-        <v>5.73</v>
+        <v>-1.34</v>
       </c>
       <c r="K59" t="n">
-        <v>4.79</v>
+        <v>4.78</v>
+      </c>
+      <c r="L59" t="n">
+        <v>3.36</v>
       </c>
     </row>
     <row r="60">
@@ -2643,34 +2822,37 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.57</v>
+        <v>-1.01</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.16</v>
+        <v>-3.11</v>
       </c>
       <c r="D60" t="n">
-        <v>-2.6</v>
+        <v>-3.88</v>
       </c>
       <c r="E60" t="n">
-        <v>4.22</v>
+        <v>1.54</v>
       </c>
       <c r="F60" t="n">
-        <v>15.19</v>
+        <v>1.48</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.57</v>
+        <v>6.04</v>
       </c>
       <c r="H60" t="n">
-        <v>2.27</v>
+        <v>-0.98</v>
       </c>
       <c r="I60" t="n">
-        <v>-1.55</v>
+        <v>0.58</v>
       </c>
       <c r="J60" t="n">
-        <v>3.35</v>
+        <v>-2.15</v>
       </c>
       <c r="K60" t="n">
-        <v>2.35</v>
+        <v>2.36</v>
+      </c>
+      <c r="L60" t="n">
+        <v>2.19</v>
       </c>
     </row>
     <row r="61">
@@ -2680,34 +2862,37 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-3.38</v>
+        <v>-1.58</v>
       </c>
       <c r="C61" t="n">
-        <v>3.51</v>
+        <v>5.16</v>
       </c>
       <c r="D61" t="n">
-        <v>-1.13</v>
+        <v>-2.29</v>
       </c>
       <c r="E61" t="n">
-        <v>0.78</v>
+        <v>0.34</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.3</v>
+        <v>0.49</v>
       </c>
       <c r="G61" t="n">
-        <v>-1.44</v>
+        <v>-0.01</v>
       </c>
       <c r="H61" t="n">
-        <v>3.04</v>
+        <v>-1.35</v>
       </c>
       <c r="I61" t="n">
-        <v>-1.19</v>
+        <v>2.81</v>
       </c>
       <c r="J61" t="n">
-        <v>5.14</v>
+        <v>-1.96</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.65</v>
+        <v>3.39</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-4.09</v>
       </c>
     </row>
     <row r="62">
@@ -2717,34 +2902,37 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>3.08</v>
+        <v>3.34</v>
       </c>
       <c r="C62" t="n">
-        <v>-3.12</v>
+        <v>-0.7</v>
       </c>
       <c r="D62" t="n">
-        <v>3.92</v>
+        <v>3.48</v>
       </c>
       <c r="E62" t="n">
-        <v>3.86</v>
+        <v>3.5</v>
       </c>
       <c r="F62" t="n">
-        <v>6.11</v>
+        <v>0.43</v>
       </c>
       <c r="G62" t="n">
-        <v>1.39</v>
+        <v>-1.87</v>
       </c>
       <c r="H62" t="n">
-        <v>0.71</v>
+        <v>-1.21</v>
       </c>
       <c r="I62" t="n">
-        <v>5.83</v>
+        <v>1.72</v>
       </c>
       <c r="J62" t="n">
-        <v>6.31</v>
+        <v>1.62</v>
       </c>
       <c r="K62" t="n">
-        <v>-3.98</v>
+        <v>2.85</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-3.88</v>
       </c>
     </row>
     <row r="63">
@@ -2754,34 +2942,37 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5.72</v>
+        <v>5.18</v>
       </c>
       <c r="C63" t="n">
-        <v>-3.96</v>
+        <v>-3.49</v>
       </c>
       <c r="D63" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="E63" t="n">
-        <v>0.59</v>
+        <v>-0.11</v>
       </c>
       <c r="F63" t="n">
-        <v>-3.1</v>
+        <v>2.64</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4</v>
+        <v>-0.66</v>
       </c>
       <c r="H63" t="n">
-        <v>0.15</v>
+        <v>-0.89</v>
       </c>
       <c r="I63" t="n">
-        <v>1.87</v>
+        <v>0.91</v>
       </c>
       <c r="J63" t="n">
-        <v>2.77</v>
+        <v>2.96</v>
       </c>
       <c r="K63" t="n">
-        <v>-1.09</v>
+        <v>3.69</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-2.95</v>
       </c>
     </row>
     <row r="64">
@@ -2791,34 +2982,37 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-1.29</v>
+        <v>0.14</v>
       </c>
       <c r="C64" t="n">
-        <v>-1.33</v>
+        <v>-0.29</v>
       </c>
       <c r="D64" t="n">
-        <v>1.29</v>
+        <v>0.54</v>
       </c>
       <c r="E64" t="n">
-        <v>6.72</v>
+        <v>1.74</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.13</v>
+        <v>-3.82</v>
       </c>
       <c r="G64" t="n">
-        <v>0.9399999999999999</v>
+        <v>-6.46</v>
       </c>
       <c r="H64" t="n">
-        <v>0.02</v>
+        <v>-1.31</v>
       </c>
       <c r="I64" t="n">
         <v>0.73</v>
       </c>
       <c r="J64" t="n">
-        <v>1.34</v>
+        <v>0.09</v>
       </c>
       <c r="K64" t="n">
-        <v>2.14</v>
+        <v>2.66</v>
+      </c>
+      <c r="L64" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -2828,34 +3022,37 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3.99</v>
+        <v>3.31</v>
       </c>
       <c r="C65" t="n">
-        <v>1.95</v>
+        <v>2.96</v>
       </c>
       <c r="D65" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>7.27</v>
+        <v>5.48</v>
       </c>
       <c r="F65" t="n">
-        <v>9.720000000000001</v>
+        <v>-0.08</v>
       </c>
       <c r="G65" t="n">
-        <v>0.46</v>
+        <v>8.27</v>
       </c>
       <c r="H65" t="n">
-        <v>-6.25</v>
+        <v>0.38</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.42</v>
+        <v>-8.34</v>
       </c>
       <c r="J65" t="n">
-        <v>-1.27</v>
+        <v>-1.28</v>
       </c>
       <c r="K65" t="n">
-        <v>7.38</v>
+        <v>-2.23</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-5.62</v>
       </c>
     </row>
   </sheetData>
